--- a/Output/Merged Feedback (IOTP).xlsx
+++ b/Output/Merged Feedback (IOTP).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -292,6 +292,24 @@
     <x:t>Provide a simple security checklist (cert provisioning, key storage, broker auth) and a reconnect/backoff code snippet.</x:t>
   </x:si>
   <x:si>
+    <x:t>2400712B@student.tp.edu.sg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LI ZHIYAN 2400712B</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cloud Services </x:t>
+  </x:si>
+  <x:si>
+    <x:t>sometimes his explanations are vague</x:t>
+  </x:si>
+  <x:si>
+    <x:t>having lab tests</x:t>
+  </x:si>
+  <x:si>
+    <x:t>having more e learning</x:t>
+  </x:si>
+  <x:si>
     <x:t>I2C sensor conflicts, payload schema consistency, and mapping topics to dashboard widgets.</x:t>
   </x:si>
   <x:si>
@@ -305,6 +323,18 @@
   </x:si>
   <x:si>
     <x:t>Share standard pin‑maps, topic naming conventions, and a small reference app for forms, charts, and server error handling.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sensors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>knows the subject well and teaches good</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">having weekly e learning </x:t>
+  </x:si>
+  <x:si>
+    <x:t>have more niche topics</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1453,46 +1483,46 @@
     </x:row>
     <x:row r="13" spans="1:22">
       <x:c r="A13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B13" s="1">
-        <x:v>46050.4927777778</x:v>
+        <x:v>46053.8765972222</x:v>
       </x:c>
       <x:c r="C13" s="1">
-        <x:v>46050.4943171296</x:v>
+        <x:v>46053.8907638889</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="L13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>4</x:v>
@@ -1501,19 +1531,279 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="U13" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="V13" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:22">
+      <x:c r="A14" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B14" s="1">
+        <x:v>46050.4927777778</x:v>
+      </x:c>
+      <x:c r="C14" s="1">
+        <x:v>46050.4943171296</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="R14" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T14" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="U13" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="V13" s="0" t="s">
-        <x:v>96</x:v>
+      <x:c r="U14" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="V14" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:22">
+      <x:c r="A15" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B15" s="1">
+        <x:v>46053.8813078704</x:v>
+      </x:c>
+      <x:c r="C15" s="1">
+        <x:v>46053.8867708333</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="R15" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="S15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T15" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="U15" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="V15" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:22">
+      <x:c r="A16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B16" s="1">
+        <x:v>46050.4927777778</x:v>
+      </x:c>
+      <x:c r="C16" s="1">
+        <x:v>46050.4943171296</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="R16" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="U16" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="V16" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:22">
+      <x:c r="A17" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B17" s="1">
+        <x:v>46053.8813078704</x:v>
+      </x:c>
+      <x:c r="C17" s="1">
+        <x:v>46053.8867708333</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q17" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="R17" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="S17" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T17" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="U17" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="V17" s="0" t="s">
+        <x:v>106</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
